--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -11,17 +11,17 @@
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Stage" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="499">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -44,76 +44,1494 @@
     <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t xml:space="preserve">car1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icons/car1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefabs/car1</t>
+    <t xml:space="preserve">vz01_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Black</t>
   </si>
   <si>
     <t xml:space="preserve">기본 지급 차량</t>
   </si>
   <si>
-    <t xml:space="preserve">car2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icons/car2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefabs/car2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icons/car3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefabs/car3</t>
+    <t xml:space="preserve">vz01_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz01_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz01_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz01_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz02_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz02_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz02_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz03_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz03_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz03_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz04_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz04_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz04_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz05r_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz05r_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz05r_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz06_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz06_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz06_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz07_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz07_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz07_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz08_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz08_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz08_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz09_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz09_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz09_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz21_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz21_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz21_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz31_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz31_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz31_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vz099_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/vz099_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_vz099_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz21_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz21_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz21_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Lightblue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gz24_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarIcons/gz24_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPrefabs/Player_gz24_Yellow</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
   </si>
   <si>
-    <t xml:space="preserve">map001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map003</t>
+    <t xml:space="preserve">map01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -139,9 +1557,17 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -199,21 +1625,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -291,7 +1737,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -323,22 +1769,22 @@
         <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -346,25 +1792,56 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -382,12 +1859,46 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -399,101 +1910,2198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="S130" activeCellId="0" sqref="S130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F6" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F89" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F92" s="7" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F93" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F94" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F103" s="7" t="n">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F105" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F106" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F107" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F108" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F109" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F110" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F111" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F112" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F114" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F115" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F116" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F117" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F118" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F119" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F121" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F122" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F123" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F124" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F125" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F126" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F127" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F128" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F129" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F130" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F131" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F132" s="7" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F133" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F134" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F135" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F136" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F137" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F138" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F139" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F140" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F141" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F142" s="7" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F143" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F144" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F145" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F146" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F147" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F148" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F149" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F150" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F151" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F152" s="7" t="n">
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
@@ -505,11 +4113,11 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -519,53 +4127,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.44"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
+      <c r="B1" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="519">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1400,6 +1400,12 @@
     <t xml:space="preserve">Scene</t>
   </si>
   <si>
+    <t xml:space="preserve">Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fare Rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">map01</t>
   </si>
   <si>
@@ -1418,106 +1424,502 @@
     <t xml:space="preserve">Map03</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">72</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map04</t>
   </si>
   <si>
     <t xml:space="preserve">Map04</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">73</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map05</t>
   </si>
   <si>
     <t xml:space="preserve">Map05</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">74</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map06</t>
   </si>
   <si>
     <t xml:space="preserve">Map06</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">75</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map07</t>
   </si>
   <si>
     <t xml:space="preserve">Map07</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">76</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map08</t>
   </si>
   <si>
     <t xml:space="preserve">Map08</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">77</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map09</t>
   </si>
   <si>
     <t xml:space="preserve">Map09</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">78</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map10</t>
   </si>
   <si>
     <t xml:space="preserve">Map10</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">79</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map11</t>
   </si>
   <si>
     <t xml:space="preserve">Map11</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">80</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map12</t>
   </si>
   <si>
     <t xml:space="preserve">Map12</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">81</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map13</t>
   </si>
   <si>
     <t xml:space="preserve">Map13</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">82</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map14</t>
   </si>
   <si>
     <t xml:space="preserve">Map14</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">83</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map15</t>
   </si>
   <si>
     <t xml:space="preserve">Map15</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">84</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map16</t>
   </si>
   <si>
     <t xml:space="preserve">Map16</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">85</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map17</t>
   </si>
   <si>
     <t xml:space="preserve">Map17</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">86</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map18</t>
   </si>
   <si>
     <t xml:space="preserve">Map18</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">87</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map19</t>
   </si>
   <si>
     <t xml:space="preserve">Map19</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">88</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">map20</t>
   </si>
   <si>
     <t xml:space="preserve">Map20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">89</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1528,7 +1930,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1970,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1625,40 +2034,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4127,15 +4540,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,165 +4559,291 @@
       <c r="B1" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>468</v>
+        <v>472</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>171</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>474</v>
+        <v>481</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>476</v>
+        <v>484</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>225</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>478</v>
+        <v>487</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>480</v>
+        <v>490</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>482</v>
+        <v>493</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>356</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>484</v>
+        <v>496</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>312</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>486</v>
+        <v>499</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>354</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>488</v>
+        <v>502</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>379</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>490</v>
+        <v>505</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>342</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>492</v>
+        <v>508</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>438</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>494</v>
+        <v>511</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>472</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>496</v>
+        <v>514</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>450</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>498</v>
+        <v>517</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>590</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Stage" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Customer" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Stage" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Talk" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,8 +22,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">1 : 목적지 설명
+2 : 택시 호출</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="563">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1395,6 +1421,36 @@
   </si>
   <si>
     <t xml:space="preserve">CarPrefabs/Player_gz24_Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerIcons/Customer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustumerPrefabs/Customer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerIcons/Customer2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustumerPrefabs/Customer2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerIcons/Customer3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustumerPrefabs/Customer3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerIcons/Customer4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustumerPrefabs/Customer4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerIcons/Customer5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustumerPrefabs/Customer5</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -1921,6 +1977,108 @@
       <t xml:space="preserve">89</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the place where you spend the most.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去消费最高的地方.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the nearby Hilton hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去附近的希尔顿酒店.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldest brother hurry up, I'm in a hurry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大哥快点,我赶时间.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, are you an old driver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">师傅,你是老司机嘛?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, how much do you earn per day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">师傅,你跑一天能赚多少?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, keep up with that Ferrari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">师傅跟上那辆法拉利.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take me to the nearest bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带我去最近的银行.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help me keep up with the car in front!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帮我跟上前面那辆车!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the railway station, I'll catch the bus!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快去火车站,我赶车!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll wait for you at the gate of the hotel lobby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我在酒店大堂门口等你.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's going to rain, you come quickly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要下雨了,你快来!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, hurry up, I have to catch the plane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">师傅快点,我要赶飞机.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, can you be there in 5 minutes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">师傅,5分钟内能到吗?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver, come on!  My wife is having a baby!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">司机快来!我老婆要生了!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, please meet me across the street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你好,请到街对面接我.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop the car, please! Stop the car, please!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车!停车!</t>
+  </si>
 </sst>
 </file>
 
@@ -1930,7 +2088,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1972,14 +2130,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1989,7 +2161,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F9D4"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -2034,7 +2212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2071,8 +2249,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2087,7 +2273,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -2104,7 +2290,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -4540,9 +4726,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4557,21 +4837,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>85</v>
@@ -4582,10 +4862,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>97</v>
@@ -4596,254 +4876,254 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>467</v>
+      <c r="D4" s="10" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>470</v>
+      <c r="D5" s="10" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>129</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>473</v>
+      <c r="D6" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>205</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>476</v>
+      <c r="D7" s="10" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>171</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>479</v>
+      <c r="D8" s="10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>163</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>482</v>
+      <c r="D9" s="10" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>225</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>485</v>
+      <c r="D10" s="10" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>184</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>488</v>
+      <c r="D11" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>210</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>491</v>
+      <c r="D12" s="10" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>356</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>494</v>
+      <c r="D13" s="10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>312</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>497</v>
+      <c r="D14" s="10" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>354</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>500</v>
+      <c r="D15" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>379</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>503</v>
+      <c r="D16" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>342</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>506</v>
+      <c r="D17" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>438</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>509</v>
+      <c r="D18" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>472</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>512</v>
+      <c r="D19" s="10" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>515</v>
+      <c r="D20" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>590</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>518</v>
+      <c r="D21" s="10" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4855,4 +5135,232 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
@@ -1426,31 +1426,31 @@
     <t xml:space="preserve">CustomerIcons/Customer1</t>
   </si>
   <si>
-    <t xml:space="preserve">CustumerPrefabs/Customer1</t>
+    <t xml:space="preserve">CustomerPrefabs/Customer1</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerIcons/Customer2</t>
   </si>
   <si>
-    <t xml:space="preserve">CustumerPrefabs/Customer2</t>
+    <t xml:space="preserve">CustomerPrefabs/Customer2</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerIcons/Customer3</t>
   </si>
   <si>
-    <t xml:space="preserve">CustumerPrefabs/Customer3</t>
+    <t xml:space="preserve">CustomerPrefabs/Customer3</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerIcons/Customer4</t>
   </si>
   <si>
-    <t xml:space="preserve">CustumerPrefabs/Customer4</t>
+    <t xml:space="preserve">CustomerPrefabs/Customer4</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerIcons/Customer5</t>
   </si>
   <si>
-    <t xml:space="preserve">CustumerPrefabs/Customer5</t>
+    <t xml:space="preserve">CustomerPrefabs/Customer5</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -2249,7 +2249,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2257,7 +2257,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4728,14 +4728,14 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,57 +4750,57 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5144,13 +5144,13 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,178 +5172,178 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>562</v>
       </c>
     </row>

--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Customer" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Stage" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Talk" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="DailyReward" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,8 +47,32 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">1 : 재화 지급
+2 : 보유하지 않은 자동차 지급</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="565">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -2078,6 +2103,12 @@
   </si>
   <si>
     <t xml:space="preserve">停车!停车!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2259,6 +2290,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4728,7 +4763,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5363,4 +5398,123 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Customer" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Stage" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Talk" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="DailyReward" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="DailyReward" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Stage" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Talk" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,31 @@
 </workbook>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">1 : 재화 지급
+2 : 보유하지 않은 자동차 지급</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -47,32 +71,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">1 : 재화 지급
-2 : 보유하지 않은 자동차 지급</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="566">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -89,6 +89,9 @@
     <t xml:space="preserve">Cost</t>
   </si>
   <si>
+    <t xml:space="preserve">Enable Reward</t>
+  </si>
+  <si>
     <t xml:space="preserve">Table</t>
   </si>
   <si>
@@ -1476,6 +1479,15 @@
   </si>
   <si>
     <t xml:space="preserve">CustomerPrefabs/Customer5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -2003,9 +2015,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Content</t>
   </si>
   <si>
@@ -2103,12 +2112,6 @@
   </si>
   <si>
     <t xml:space="preserve">停车!停车!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
   </si>
 </sst>
 </file>
@@ -2169,15 +2172,15 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -2243,7 +2246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2284,16 +2287,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2544,10 +2543,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S130" activeCellId="0" sqref="S130"/>
+      <pane xSplit="0" ySplit="825" topLeftCell="A46" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G142" activeCellId="0" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2557,7 +2558,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2577,2174 +2579,2629 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>1000</v>
       </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="n">
         <v>1100</v>
       </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G30" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G31" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="7" t="n">
         <v>1200</v>
       </c>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G34" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F35" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G37" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G38" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G39" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F40" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F41" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" s="7" t="n">
         <v>1300</v>
       </c>
+      <c r="G42" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F43" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F44" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G44" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F45" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G45" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F46" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G46" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G47" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F48" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G48" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F49" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G49" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F50" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G50" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F51" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G51" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52" s="7" t="n">
         <v>1400</v>
       </c>
+      <c r="G52" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F53" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G53" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F54" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G54" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F55" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G55" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F56" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G56" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F57" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G57" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F58" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G58" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F59" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G59" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F60" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G60" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F61" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G61" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F62" s="7" t="n">
         <v>1500</v>
       </c>
+      <c r="G62" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F63" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G63" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F64" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G64" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F65" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G65" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F66" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G66" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F67" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G67" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F68" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G68" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F69" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G69" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F70" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G70" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F71" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G71" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F72" s="7" t="n">
         <v>1600</v>
       </c>
+      <c r="G72" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F73" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G73" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F74" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G74" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F75" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G75" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F76" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G76" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F77" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G77" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F78" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G78" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F79" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G79" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F80" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G80" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F81" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G81" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F82" s="7" t="n">
         <v>1700</v>
       </c>
+      <c r="G82" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F83" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G83" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F84" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G84" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F85" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G85" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F86" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G86" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F87" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G87" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F88" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G88" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F89" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G89" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F90" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G90" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F91" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G91" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F92" s="7" t="n">
         <v>1800</v>
       </c>
+      <c r="G92" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F93" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G93" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F94" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G94" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F95" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G95" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F96" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G96" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F97" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G97" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F98" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G98" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F99" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G99" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F100" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G100" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F101" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G101" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F102" s="7" t="n">
         <v>1900</v>
       </c>
+      <c r="G102" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F103" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G103" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F104" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G104" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F105" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G105" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F106" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G106" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F107" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G107" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F108" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G108" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F109" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G109" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F110" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G110" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F111" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G111" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F112" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="G112" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F113" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G113" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F114" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G114" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F115" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G115" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F116" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G116" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F117" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G117" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F118" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G118" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F119" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G119" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F120" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G120" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F121" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G121" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F122" s="7" t="n">
         <v>2100</v>
       </c>
+      <c r="G122" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F123" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G123" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F124" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G124" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F125" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G125" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F126" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G126" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F127" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G127" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F128" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G128" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F129" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G129" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F130" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G130" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F131" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G131" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F132" s="7" t="n">
         <v>2200</v>
       </c>
+      <c r="G132" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F133" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G133" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F134" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G134" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F135" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G135" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F136" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G136" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F137" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G137" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F138" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G138" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F139" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G139" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F140" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G140" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F141" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G141" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F142" s="7" t="n">
         <v>2300</v>
       </c>
+      <c r="G142" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F143" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G143" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F144" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G144" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F145" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G145" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F146" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G146" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F147" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G147" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F148" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G148" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F149" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G149" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F150" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G150" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F151" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G151" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F152" s="7" t="n">
         <v>2400</v>
       </c>
+      <c r="G152" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4789,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,10 +5268,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,10 +5279,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,10 +5290,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4851,6 +5308,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4872,21 +5448,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>85</v>
@@ -4897,10 +5473,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>97</v>
@@ -4911,254 +5487,254 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>205</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>171</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>163</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>225</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>184</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>210</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>356</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>312</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>354</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>379</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>342</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>438</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>472</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>450</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>590</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5172,7 +5748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5190,20 +5766,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11"/>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,10 +5787,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,10 +5798,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,10 +5809,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,10 +5831,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,10 +5864,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,10 +5886,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,10 +5897,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,10 +5919,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,10 +5930,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,10 +5941,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,10 +5952,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5398,123 +5974,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.69"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;Kffffff페이지 &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="567">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fare Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Collect</t>
   </si>
   <si>
     <t xml:space="preserve">map01</t>
@@ -5314,7 +5317,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5431,16 +5434,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,13 +5460,16 @@
       <c r="D1" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>85</v>
@@ -5470,13 +5477,16 @@
       <c r="D2" s="6" t="n">
         <v>0.7</v>
       </c>
+      <c r="E2" s="6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>97</v>
@@ -5484,257 +5494,314 @@
       <c r="D3" s="6" t="n">
         <v>0.71</v>
       </c>
+      <c r="E3" s="6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>205</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>171</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>163</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>225</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>184</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>210</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>356</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>312</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>354</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>379</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>342</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>438</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>472</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>450</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>590</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5769,7 +5836,7 @@
         <v>470</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C1" s="9"/>
     </row>
@@ -5787,10 +5854,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,10 +5876,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,10 +5898,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5842,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,10 +5931,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,10 +5942,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,10 +5953,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,10 +5964,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5908,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5919,10 +5986,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,10 +5997,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,10 +6008,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,10 +6019,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Car" sheetId="1" state="visible" r:id="rId3"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="568">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RewardIcons/Coin</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -5317,13 +5320,14 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,6 +5351,9 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
@@ -5358,6 +5365,9 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="D3" s="1" t="n">
         <v>150</v>
       </c>
@@ -5369,6 +5379,9 @@
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="D4" s="1" t="n">
         <v>240</v>
       </c>
@@ -5380,6 +5393,9 @@
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="D5" s="1" t="n">
         <v>480</v>
       </c>
@@ -5391,6 +5407,9 @@
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>472</v>
+      </c>
       <c r="D6" s="1" t="n">
         <v>700</v>
       </c>
@@ -5401,6 +5420,9 @@
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>472</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1000</v>
@@ -5436,7 +5458,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -5444,7 +5466,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,24 +5474,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>85</v>
@@ -5483,10 +5505,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>97</v>
@@ -5500,16 +5522,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>11</v>
@@ -5517,16 +5539,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>11</v>
@@ -5534,16 +5556,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>129</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>12</v>
@@ -5551,16 +5573,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>205</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>12</v>
@@ -5568,16 +5590,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>171</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>13</v>
@@ -5585,16 +5607,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>163</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>13</v>
@@ -5602,16 +5624,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>225</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E10" s="10" t="n">
         <v>14</v>
@@ -5619,16 +5641,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>184</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>14</v>
@@ -5636,16 +5658,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>210</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E12" s="10" t="n">
         <v>15</v>
@@ -5653,16 +5675,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>356</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E13" s="10" t="n">
         <v>15</v>
@@ -5670,16 +5692,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>312</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E14" s="10" t="n">
         <v>16</v>
@@ -5687,16 +5709,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>354</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>16</v>
@@ -5704,16 +5726,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>379</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E16" s="10" t="n">
         <v>17</v>
@@ -5721,16 +5743,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>342</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E17" s="10" t="n">
         <v>17</v>
@@ -5738,16 +5760,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>438</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>18</v>
@@ -5755,16 +5777,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>472</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>18</v>
@@ -5772,16 +5794,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>450</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>19</v>
@@ -5789,16 +5811,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>590</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>19</v>
@@ -5836,7 +5858,7 @@
         <v>470</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C1" s="9"/>
     </row>
@@ -5854,10 +5876,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,10 +5898,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,10 +5931,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,10 +5942,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5953,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,10 +5986,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,10 +5997,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5986,10 +6008,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,10 +6019,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,10 +6030,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,10 +6041,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/taxi-game-3d-templates/Template(Dev).xlsx
+++ b/taxi-game-3d-templates/Template(Dev).xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="854">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -104,6 +104,12 @@
     <t xml:space="preserve">vz01_black</t>
   </si>
   <si>
+    <t xml:space="preserve">Game String Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car/vz01_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_black</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t xml:space="preserve">vz01_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_blue</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t xml:space="preserve">vz01_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_gray</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
     <t xml:space="preserve">vz01_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_green</t>
   </si>
   <si>
@@ -155,6 +170,9 @@
     <t xml:space="preserve">vz01_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_lightblue</t>
   </si>
   <si>
@@ -167,6 +185,9 @@
     <t xml:space="preserve">vz01_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_purple</t>
   </si>
   <si>
@@ -179,6 +200,9 @@
     <t xml:space="preserve">vz01_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_red</t>
   </si>
   <si>
@@ -191,6 +215,9 @@
     <t xml:space="preserve">vz01_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_sand</t>
   </si>
   <si>
@@ -203,6 +230,9 @@
     <t xml:space="preserve">vz01_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_white</t>
   </si>
   <si>
@@ -215,6 +245,9 @@
     <t xml:space="preserve">vz01_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz01_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz01_yellow</t>
   </si>
   <si>
@@ -227,6 +260,9 @@
     <t xml:space="preserve">vz02_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_black</t>
   </si>
   <si>
@@ -239,6 +275,9 @@
     <t xml:space="preserve">vz02_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_blue</t>
   </si>
   <si>
@@ -251,6 +290,9 @@
     <t xml:space="preserve">vz02_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_gray</t>
   </si>
   <si>
@@ -263,6 +305,9 @@
     <t xml:space="preserve">vz02_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_green</t>
   </si>
   <si>
@@ -275,6 +320,9 @@
     <t xml:space="preserve">vz02_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_lightblue</t>
   </si>
   <si>
@@ -287,6 +335,9 @@
     <t xml:space="preserve">vz02_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_purple</t>
   </si>
   <si>
@@ -299,6 +350,9 @@
     <t xml:space="preserve">vz02_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_red</t>
   </si>
   <si>
@@ -311,6 +365,9 @@
     <t xml:space="preserve">vz02_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_sand</t>
   </si>
   <si>
@@ -323,6 +380,9 @@
     <t xml:space="preserve">vz02_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_white</t>
   </si>
   <si>
@@ -335,6 +395,9 @@
     <t xml:space="preserve">vz02_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz02_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz02_yellow</t>
   </si>
   <si>
@@ -347,6 +410,9 @@
     <t xml:space="preserve">vz03_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_black</t>
   </si>
   <si>
@@ -359,6 +425,9 @@
     <t xml:space="preserve">vz03_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_blue</t>
   </si>
   <si>
@@ -371,6 +440,9 @@
     <t xml:space="preserve">vz03_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_gray</t>
   </si>
   <si>
@@ -383,6 +455,9 @@
     <t xml:space="preserve">vz03_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_green</t>
   </si>
   <si>
@@ -395,6 +470,9 @@
     <t xml:space="preserve">vz03_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_lightblue</t>
   </si>
   <si>
@@ -407,6 +485,9 @@
     <t xml:space="preserve">vz03_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_purple</t>
   </si>
   <si>
@@ -419,6 +500,9 @@
     <t xml:space="preserve">vz03_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_red</t>
   </si>
   <si>
@@ -431,6 +515,9 @@
     <t xml:space="preserve">vz03_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_sand</t>
   </si>
   <si>
@@ -443,6 +530,9 @@
     <t xml:space="preserve">vz03_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_white</t>
   </si>
   <si>
@@ -455,6 +545,9 @@
     <t xml:space="preserve">vz03_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz03_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz03_yellow</t>
   </si>
   <si>
@@ -467,6 +560,9 @@
     <t xml:space="preserve">vz04_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_black</t>
   </si>
   <si>
@@ -479,6 +575,9 @@
     <t xml:space="preserve">vz04_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_blue</t>
   </si>
   <si>
@@ -491,6 +590,9 @@
     <t xml:space="preserve">vz04_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_gray</t>
   </si>
   <si>
@@ -503,6 +605,9 @@
     <t xml:space="preserve">vz04_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_green</t>
   </si>
   <si>
@@ -515,6 +620,9 @@
     <t xml:space="preserve">vz04_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_lightblue</t>
   </si>
   <si>
@@ -527,6 +635,9 @@
     <t xml:space="preserve">vz04_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_purple</t>
   </si>
   <si>
@@ -539,6 +650,9 @@
     <t xml:space="preserve">vz04_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_red</t>
   </si>
   <si>
@@ -551,6 +665,9 @@
     <t xml:space="preserve">vz04_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_sand</t>
   </si>
   <si>
@@ -563,6 +680,9 @@
     <t xml:space="preserve">vz04_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_white</t>
   </si>
   <si>
@@ -575,6 +695,9 @@
     <t xml:space="preserve">vz04_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz04_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz04_yellow</t>
   </si>
   <si>
@@ -587,6 +710,9 @@
     <t xml:space="preserve">vz05_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_black</t>
   </si>
   <si>
@@ -599,6 +725,9 @@
     <t xml:space="preserve">vz05_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_blue</t>
   </si>
   <si>
@@ -611,6 +740,9 @@
     <t xml:space="preserve">vz05_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_gray</t>
   </si>
   <si>
@@ -623,6 +755,9 @@
     <t xml:space="preserve">vz05_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_green</t>
   </si>
   <si>
@@ -635,6 +770,9 @@
     <t xml:space="preserve">vz05_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_lightblue</t>
   </si>
   <si>
@@ -647,6 +785,9 @@
     <t xml:space="preserve">vz05_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_purple</t>
   </si>
   <si>
@@ -659,6 +800,9 @@
     <t xml:space="preserve">vz05_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_red</t>
   </si>
   <si>
@@ -671,6 +815,9 @@
     <t xml:space="preserve">vz05_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_sand</t>
   </si>
   <si>
@@ -683,6 +830,9 @@
     <t xml:space="preserve">vz05_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_white</t>
   </si>
   <si>
@@ -695,6 +845,9 @@
     <t xml:space="preserve">vz05_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05_yellow</t>
   </si>
   <si>
@@ -707,6 +860,9 @@
     <t xml:space="preserve">vz05r_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_black</t>
   </si>
   <si>
@@ -719,6 +875,9 @@
     <t xml:space="preserve">vz05r_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_blue</t>
   </si>
   <si>
@@ -731,6 +890,9 @@
     <t xml:space="preserve">vz05r_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_gray</t>
   </si>
   <si>
@@ -743,6 +905,9 @@
     <t xml:space="preserve">vz05r_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_green</t>
   </si>
   <si>
@@ -755,6 +920,9 @@
     <t xml:space="preserve">vz05r_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_lightblue</t>
   </si>
   <si>
@@ -767,6 +935,9 @@
     <t xml:space="preserve">vz05r_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_purple</t>
   </si>
   <si>
@@ -779,6 +950,9 @@
     <t xml:space="preserve">vz05r_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_red</t>
   </si>
   <si>
@@ -791,6 +965,9 @@
     <t xml:space="preserve">vz05r_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_sand</t>
   </si>
   <si>
@@ -803,6 +980,9 @@
     <t xml:space="preserve">vz05r_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_white</t>
   </si>
   <si>
@@ -815,6 +995,9 @@
     <t xml:space="preserve">vz05r_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz05r_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz05r_yellow</t>
   </si>
   <si>
@@ -827,6 +1010,9 @@
     <t xml:space="preserve">vz06_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_black</t>
   </si>
   <si>
@@ -839,6 +1025,9 @@
     <t xml:space="preserve">vz06_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_blue</t>
   </si>
   <si>
@@ -851,6 +1040,9 @@
     <t xml:space="preserve">vz06_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_gray</t>
   </si>
   <si>
@@ -863,6 +1055,9 @@
     <t xml:space="preserve">vz06_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_green</t>
   </si>
   <si>
@@ -875,6 +1070,9 @@
     <t xml:space="preserve">vz06_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_lightblue</t>
   </si>
   <si>
@@ -887,6 +1085,9 @@
     <t xml:space="preserve">vz06_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_purple</t>
   </si>
   <si>
@@ -899,6 +1100,9 @@
     <t xml:space="preserve">vz06_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_red</t>
   </si>
   <si>
@@ -911,6 +1115,9 @@
     <t xml:space="preserve">vz06_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_sand</t>
   </si>
   <si>
@@ -923,6 +1130,9 @@
     <t xml:space="preserve">vz06_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_white</t>
   </si>
   <si>
@@ -935,6 +1145,9 @@
     <t xml:space="preserve">vz06_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz06_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz06_yellow</t>
   </si>
   <si>
@@ -947,6 +1160,9 @@
     <t xml:space="preserve">vz07_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_black</t>
   </si>
   <si>
@@ -959,6 +1175,9 @@
     <t xml:space="preserve">vz07_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_blue</t>
   </si>
   <si>
@@ -971,6 +1190,9 @@
     <t xml:space="preserve">vz07_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_gray</t>
   </si>
   <si>
@@ -983,6 +1205,9 @@
     <t xml:space="preserve">vz07_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_green</t>
   </si>
   <si>
@@ -995,6 +1220,9 @@
     <t xml:space="preserve">vz07_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_lightblue</t>
   </si>
   <si>
@@ -1007,6 +1235,9 @@
     <t xml:space="preserve">vz07_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_purple</t>
   </si>
   <si>
@@ -1019,6 +1250,9 @@
     <t xml:space="preserve">vz07_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_red</t>
   </si>
   <si>
@@ -1031,6 +1265,9 @@
     <t xml:space="preserve">vz07_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_sand</t>
   </si>
   <si>
@@ -1043,6 +1280,9 @@
     <t xml:space="preserve">vz07_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_white</t>
   </si>
   <si>
@@ -1055,6 +1295,9 @@
     <t xml:space="preserve">vz07_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz07_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz07_yellow</t>
   </si>
   <si>
@@ -1067,6 +1310,9 @@
     <t xml:space="preserve">vz08_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_black</t>
   </si>
   <si>
@@ -1079,6 +1325,9 @@
     <t xml:space="preserve">vz08_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_blue</t>
   </si>
   <si>
@@ -1091,6 +1340,9 @@
     <t xml:space="preserve">vz08_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_gray</t>
   </si>
   <si>
@@ -1103,6 +1355,9 @@
     <t xml:space="preserve">vz08_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_green</t>
   </si>
   <si>
@@ -1115,6 +1370,9 @@
     <t xml:space="preserve">vz08_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_lightblue</t>
   </si>
   <si>
@@ -1127,6 +1385,9 @@
     <t xml:space="preserve">vz08_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_purple</t>
   </si>
   <si>
@@ -1139,6 +1400,9 @@
     <t xml:space="preserve">vz08_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_red</t>
   </si>
   <si>
@@ -1151,6 +1415,9 @@
     <t xml:space="preserve">vz08_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_sand</t>
   </si>
   <si>
@@ -1163,6 +1430,9 @@
     <t xml:space="preserve">vz08_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_white</t>
   </si>
   <si>
@@ -1175,6 +1445,9 @@
     <t xml:space="preserve">vz08_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz08_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz08_yellow</t>
   </si>
   <si>
@@ -1187,6 +1460,9 @@
     <t xml:space="preserve">vz09_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_black</t>
   </si>
   <si>
@@ -1199,6 +1475,9 @@
     <t xml:space="preserve">vz09_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_blue</t>
   </si>
   <si>
@@ -1211,6 +1490,9 @@
     <t xml:space="preserve">vz09_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_gray</t>
   </si>
   <si>
@@ -1223,6 +1505,9 @@
     <t xml:space="preserve">vz09_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_green</t>
   </si>
   <si>
@@ -1235,6 +1520,9 @@
     <t xml:space="preserve">vz09_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_lightblue</t>
   </si>
   <si>
@@ -1247,6 +1535,9 @@
     <t xml:space="preserve">vz09_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_purple</t>
   </si>
   <si>
@@ -1259,6 +1550,9 @@
     <t xml:space="preserve">vz09_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_red</t>
   </si>
   <si>
@@ -1271,6 +1565,9 @@
     <t xml:space="preserve">vz09_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_sand</t>
   </si>
   <si>
@@ -1283,6 +1580,9 @@
     <t xml:space="preserve">vz09_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_white</t>
   </si>
   <si>
@@ -1295,6 +1595,9 @@
     <t xml:space="preserve">vz09_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz09_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz09_yellow</t>
   </si>
   <si>
@@ -1307,6 +1610,9 @@
     <t xml:space="preserve">vz21_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_black</t>
   </si>
   <si>
@@ -1319,6 +1625,9 @@
     <t xml:space="preserve">vz21_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_blue</t>
   </si>
   <si>
@@ -1331,6 +1640,9 @@
     <t xml:space="preserve">vz21_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_gray</t>
   </si>
   <si>
@@ -1343,6 +1655,9 @@
     <t xml:space="preserve">vz21_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_green</t>
   </si>
   <si>
@@ -1355,6 +1670,9 @@
     <t xml:space="preserve">vz21_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_lightblue</t>
   </si>
   <si>
@@ -1367,6 +1685,9 @@
     <t xml:space="preserve">vz21_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_purple</t>
   </si>
   <si>
@@ -1379,6 +1700,9 @@
     <t xml:space="preserve">vz21_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_red</t>
   </si>
   <si>
@@ -1391,6 +1715,9 @@
     <t xml:space="preserve">vz21_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_sand</t>
   </si>
   <si>
@@ -1403,6 +1730,9 @@
     <t xml:space="preserve">vz21_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_white</t>
   </si>
   <si>
@@ -1415,6 +1745,9 @@
     <t xml:space="preserve">vz21_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz21_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz21_yellow</t>
   </si>
   <si>
@@ -1427,6 +1760,9 @@
     <t xml:space="preserve">vz31_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_black</t>
   </si>
   <si>
@@ -1439,6 +1775,9 @@
     <t xml:space="preserve">vz31_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_blue</t>
   </si>
   <si>
@@ -1451,6 +1790,9 @@
     <t xml:space="preserve">vz31_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_gray</t>
   </si>
   <si>
@@ -1463,6 +1805,9 @@
     <t xml:space="preserve">vz31_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_green</t>
   </si>
   <si>
@@ -1475,6 +1820,9 @@
     <t xml:space="preserve">vz31_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_lightblue</t>
   </si>
   <si>
@@ -1487,6 +1835,9 @@
     <t xml:space="preserve">vz31_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_purple</t>
   </si>
   <si>
@@ -1499,6 +1850,9 @@
     <t xml:space="preserve">vz31_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_red</t>
   </si>
   <si>
@@ -1511,6 +1865,9 @@
     <t xml:space="preserve">vz31_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_sand</t>
   </si>
   <si>
@@ -1523,6 +1880,9 @@
     <t xml:space="preserve">vz31_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_white</t>
   </si>
   <si>
@@ -1535,6 +1895,9 @@
     <t xml:space="preserve">vz31_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz31_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz31_yellow</t>
   </si>
   <si>
@@ -1547,6 +1910,9 @@
     <t xml:space="preserve">vz099_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_black</t>
   </si>
   <si>
@@ -1559,6 +1925,9 @@
     <t xml:space="preserve">vz099_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_blue</t>
   </si>
   <si>
@@ -1571,6 +1940,9 @@
     <t xml:space="preserve">vz099_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_gray</t>
   </si>
   <si>
@@ -1583,6 +1955,9 @@
     <t xml:space="preserve">vz099_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_green</t>
   </si>
   <si>
@@ -1595,6 +1970,9 @@
     <t xml:space="preserve">vz099_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_lightblue</t>
   </si>
   <si>
@@ -1607,6 +1985,9 @@
     <t xml:space="preserve">vz099_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_purple</t>
   </si>
   <si>
@@ -1619,6 +2000,9 @@
     <t xml:space="preserve">vz099_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_red</t>
   </si>
   <si>
@@ -1631,6 +2015,9 @@
     <t xml:space="preserve">vz099_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_sand</t>
   </si>
   <si>
@@ -1643,6 +2030,9 @@
     <t xml:space="preserve">vz099_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_white</t>
   </si>
   <si>
@@ -1655,6 +2045,9 @@
     <t xml:space="preserve">vz099_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/vz099_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/vz099_yellow</t>
   </si>
   <si>
@@ -1667,6 +2060,9 @@
     <t xml:space="preserve">gz21_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_black</t>
   </si>
   <si>
@@ -1679,6 +2075,9 @@
     <t xml:space="preserve">gz21_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_blue</t>
   </si>
   <si>
@@ -1691,6 +2090,9 @@
     <t xml:space="preserve">gz21_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_gray</t>
   </si>
   <si>
@@ -1703,6 +2105,9 @@
     <t xml:space="preserve">gz21_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_green</t>
   </si>
   <si>
@@ -1715,6 +2120,9 @@
     <t xml:space="preserve">gz21_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_lightblue</t>
   </si>
   <si>
@@ -1727,6 +2135,9 @@
     <t xml:space="preserve">gz21_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_purple</t>
   </si>
   <si>
@@ -1739,6 +2150,9 @@
     <t xml:space="preserve">gz21_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_red</t>
   </si>
   <si>
@@ -1751,6 +2165,9 @@
     <t xml:space="preserve">gz21_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_sand</t>
   </si>
   <si>
@@ -1763,6 +2180,9 @@
     <t xml:space="preserve">gz21_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_white</t>
   </si>
   <si>
@@ -1775,6 +2195,9 @@
     <t xml:space="preserve">gz21_yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz21_yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz21_yellow</t>
   </si>
   <si>
@@ -1787,6 +2210,9 @@
     <t xml:space="preserve">gz24_black</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_black</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_black</t>
   </si>
   <si>
@@ -1799,6 +2225,9 @@
     <t xml:space="preserve">gz24_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_blue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_blue</t>
   </si>
   <si>
@@ -1811,6 +2240,9 @@
     <t xml:space="preserve">gz24_gray</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_gray</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_gray</t>
   </si>
   <si>
@@ -1823,6 +2255,9 @@
     <t xml:space="preserve">gz24_green</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_green</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_green</t>
   </si>
   <si>
@@ -1835,6 +2270,9 @@
     <t xml:space="preserve">gz24_lightblue</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_lightblue</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_lightblue</t>
   </si>
   <si>
@@ -1847,6 +2285,9 @@
     <t xml:space="preserve">gz24_purple</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_purple</t>
   </si>
   <si>
@@ -1859,6 +2300,9 @@
     <t xml:space="preserve">gz24_red</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_red</t>
   </si>
   <si>
@@ -1871,6 +2315,9 @@
     <t xml:space="preserve">gz24_sand</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_sand</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_sand</t>
   </si>
   <si>
@@ -1883,6 +2330,9 @@
     <t xml:space="preserve">gz24_white</t>
   </si>
   <si>
+    <t xml:space="preserve">car/gz24_white</t>
+  </si>
+  <si>
     <t xml:space="preserve">CarIcons/gz24_white</t>
   </si>
   <si>
@@ -1893,6 +2343,9 @@
   </si>
   <si>
     <t xml:space="preserve">gz24_yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car/gz24_yellow</t>
   </si>
   <si>
     <t xml:space="preserve">CarIcons/gz24_yellow</t>
@@ -2480,100 +2933,49 @@
     <t xml:space="preserve">Content</t>
   </si>
   <si>
-    <t xml:space="preserve">Go to the place where you spend the most.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">去消费最高的地方.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to the nearby Hilton hotel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">去附近的希尔顿酒店.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldest brother hurry up, I'm in a hurry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大哥快点,我赶时间.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master, are you an old driver?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">师傅,你是老司机嘛?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master, how much do you earn per day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">师傅,你跑一天能赚多少?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master, keep up with that Ferrari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">师傅跟上那辆法拉利.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take me to the nearest bank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带我去最近的银行.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help me keep up with the car in front!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帮我跟上前面那辆车!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to the railway station, I'll catch the bus!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">快去火车站,我赶车!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'll wait for you at the gate of the hotel lobby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我在酒店大堂门口等你.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's going to rain, you come quickly!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要下雨了,你快来!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master, hurry up, I have to catch the plane.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">师傅快点,我要赶飞机.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master, can you be there in 5 minutes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">师傅,5分钟内能到吗?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver, come on!  My wife is having a baby!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">司机快来!我老婆要生了!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello, please meet me across the street.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你好,请到街对面接我.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stop the car, please! Stop the car, please!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停车!停车!</t>
+    <t xml:space="preserve">talk/1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk/2-6</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +3110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2737,7 +3139,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2749,15 +3151,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3027,15 +3421,15 @@
   </sheetPr>
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E138" activeCellId="0" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.81"/>
@@ -3082,20 +3476,24 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="n">
         <v>0</v>
@@ -3104,3030 +3502,3880 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13" t="n">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="13" t="n">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="13" t="n">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="13" t="n">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="13" t="n">
+      <c r="A10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="13" t="n">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="13" t="n">
+      <c r="A12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="H12" s="13" t="n">
+      <c r="H12" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="13" t="n">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H13" s="13" t="n">
+      <c r="H13" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="13" t="n">
+      <c r="A14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H14" s="13" t="n">
+      <c r="H14" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="13" t="n">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H15" s="13" t="n">
+      <c r="H15" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="13" t="n">
+      <c r="A16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="13" t="n">
+      <c r="A17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H17" s="13" t="n">
+      <c r="H17" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="13" t="n">
+      <c r="A18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="13" t="n">
+      <c r="A19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H19" s="13" t="n">
+      <c r="H19" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="13" t="n">
+      <c r="A20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H20" s="13" t="n">
+      <c r="H20" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="13" t="n">
+      <c r="A21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="13" t="n">
+      <c r="A22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="H22" s="13" t="n">
+      <c r="H22" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="13" t="n">
+      <c r="A23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H23" s="13" t="n">
+      <c r="H23" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="13" t="n">
+      <c r="A24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H24" s="13" t="n">
+      <c r="H24" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="13" t="n">
+      <c r="A25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H25" s="13" t="n">
+      <c r="H25" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="13" t="n">
+      <c r="A26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="13" t="n">
+      <c r="A27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H27" s="13" t="n">
+      <c r="H27" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="13" t="n">
+      <c r="A28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H28" s="13" t="n">
+      <c r="H28" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="13" t="n">
+      <c r="A29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H29" s="13" t="n">
+      <c r="H29" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="13" t="n">
+      <c r="A30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H30" s="13" t="n">
+      <c r="H30" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="13" t="n">
+      <c r="A31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H31" s="13" t="n">
+      <c r="H31" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="13" t="n">
+      <c r="A32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="11" t="n">
         <v>1200</v>
       </c>
-      <c r="H32" s="13" t="n">
+      <c r="H32" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="13" t="n">
+      <c r="A33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H33" s="13" t="n">
+      <c r="H33" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="13" t="n">
+      <c r="A34" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H34" s="13" t="n">
+      <c r="H34" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="13" t="n">
+      <c r="A35" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H35" s="13" t="n">
+      <c r="H35" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="13" t="n">
+      <c r="A36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H36" s="13" t="n">
+      <c r="H36" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="13" t="n">
+      <c r="A37" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H37" s="13" t="n">
+      <c r="H37" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="13" t="n">
+      <c r="A38" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H38" s="13" t="n">
+      <c r="H38" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="13" t="n">
+      <c r="A39" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H39" s="13" t="n">
+      <c r="H39" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="13" t="n">
+      <c r="A40" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H40" s="13" t="n">
+      <c r="H40" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="13" t="n">
+      <c r="A41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H41" s="13" t="n">
+      <c r="H41" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="13" t="n">
+      <c r="A42" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="11" t="n">
         <v>1300</v>
       </c>
-      <c r="H42" s="13" t="n">
+      <c r="H42" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="13" t="n">
+      <c r="A43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H43" s="13" t="n">
+      <c r="H43" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="13" t="n">
+      <c r="A44" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H44" s="13" t="n">
+      <c r="H44" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="13" t="n">
+      <c r="A45" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H45" s="13" t="n">
+      <c r="H45" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="13" t="n">
+      <c r="A46" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H46" s="13" t="n">
+      <c r="H46" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G47" s="13" t="n">
+      <c r="A47" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H47" s="13" t="n">
+      <c r="H47" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="13" t="n">
+      <c r="A48" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H48" s="13" t="n">
+      <c r="H48" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49" s="13" t="n">
+      <c r="A49" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H49" s="13" t="n">
+      <c r="H49" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="13" t="n">
+      <c r="A50" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H50" s="13" t="n">
+      <c r="H50" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" s="13" t="n">
+      <c r="A51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H51" s="13" t="n">
+      <c r="H51" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="13" t="n">
+      <c r="A52" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="H52" s="13" t="n">
+      <c r="H52" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G53" s="13" t="n">
+      <c r="A53" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H53" s="13" t="n">
+      <c r="H53" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54" s="13" t="n">
+      <c r="A54" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G54" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H54" s="13" t="n">
+      <c r="H54" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="13" t="n">
+      <c r="A55" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H55" s="13" t="n">
+      <c r="H55" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56" s="13" t="n">
+      <c r="A56" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H56" s="13" t="n">
+      <c r="H56" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G57" s="13" t="n">
+      <c r="A57" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H57" s="13" t="n">
+      <c r="H57" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G58" s="13" t="n">
+      <c r="A58" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H58" s="13" t="n">
+      <c r="H58" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G59" s="13" t="n">
+      <c r="A59" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H59" s="13" t="n">
+      <c r="H59" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" s="13" t="n">
+      <c r="A60" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H60" s="13" t="n">
+      <c r="H60" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G61" s="13" t="n">
+      <c r="A61" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H61" s="13" t="n">
+      <c r="H61" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G62" s="13" t="n">
+      <c r="A62" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G62" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="H62" s="13" t="n">
+      <c r="H62" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G63" s="13" t="n">
+      <c r="A63" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H63" s="13" t="n">
+      <c r="H63" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G64" s="13" t="n">
+      <c r="A64" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H64" s="13" t="n">
+      <c r="H64" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G65" s="13" t="n">
+      <c r="A65" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H65" s="13" t="n">
+      <c r="H65" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G66" s="13" t="n">
+      <c r="A66" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H66" s="13" t="n">
+      <c r="H66" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="G67" s="13" t="n">
+      <c r="A67" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H67" s="13" t="n">
+      <c r="H67" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G68" s="13" t="n">
+      <c r="A68" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G68" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H68" s="13" t="n">
+      <c r="H68" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" s="13" t="n">
+      <c r="A69" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H69" s="13" t="n">
+      <c r="H69" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G70" s="13" t="n">
+      <c r="A70" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H70" s="13" t="n">
+      <c r="H70" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G71" s="13" t="n">
+      <c r="A71" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G71" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H71" s="13" t="n">
+      <c r="H71" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G72" s="13" t="n">
+      <c r="A72" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" s="11" t="n">
         <v>1600</v>
       </c>
-      <c r="H72" s="13" t="n">
+      <c r="H72" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="G73" s="13" t="n">
+      <c r="A73" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H73" s="13" t="n">
+      <c r="H73" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G74" s="13" t="n">
+      <c r="A74" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G74" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H74" s="13" t="n">
+      <c r="H74" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" s="13" t="n">
+      <c r="A75" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G75" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H75" s="13" t="n">
+      <c r="H75" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G76" s="13" t="n">
+      <c r="A76" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H76" s="13" t="n">
+      <c r="H76" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" s="13" t="n">
+      <c r="A77" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G77" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H77" s="13" t="n">
+      <c r="H77" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G78" s="13" t="n">
+      <c r="A78" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G78" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H78" s="13" t="n">
+      <c r="H78" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G79" s="13" t="n">
+      <c r="A79" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G79" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H79" s="13" t="n">
+      <c r="H79" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G80" s="13" t="n">
+      <c r="A80" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G80" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H80" s="13" t="n">
+      <c r="H80" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G81" s="13" t="n">
+      <c r="A81" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G81" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H81" s="13" t="n">
+      <c r="H81" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G82" s="13" t="n">
+      <c r="A82" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G82" s="11" t="n">
         <v>1700</v>
       </c>
-      <c r="H82" s="13" t="n">
+      <c r="H82" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G83" s="13" t="n">
+      <c r="A83" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G83" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H83" s="13" t="n">
+      <c r="H83" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G84" s="13" t="n">
+      <c r="A84" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G84" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H84" s="13" t="n">
+      <c r="H84" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="G85" s="13" t="n">
+      <c r="A85" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G85" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H85" s="13" t="n">
+      <c r="H85" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G86" s="13" t="n">
+      <c r="A86" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H86" s="13" t="n">
+      <c r="H86" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="G87" s="13" t="n">
+      <c r="A87" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G87" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H87" s="13" t="n">
+      <c r="H87" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="13" t="n">
+      <c r="A88" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G88" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H88" s="13" t="n">
+      <c r="H88" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="G89" s="13" t="n">
+      <c r="A89" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H89" s="13" t="n">
+      <c r="H89" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G90" s="13" t="n">
+      <c r="A90" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G90" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H90" s="13" t="n">
+      <c r="H90" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G91" s="13" t="n">
+      <c r="A91" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G91" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H91" s="13" t="n">
+      <c r="H91" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G92" s="13" t="n">
+      <c r="A92" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="H92" s="13" t="n">
+      <c r="H92" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G93" s="13" t="n">
+      <c r="A93" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G93" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H93" s="13" t="n">
+      <c r="H93" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G94" s="13" t="n">
+      <c r="A94" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G94" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H94" s="13" t="n">
+      <c r="H94" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G95" s="13" t="n">
+      <c r="A95" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="G95" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H95" s="13" t="n">
+      <c r="H95" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="G96" s="13" t="n">
+      <c r="A96" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G96" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H96" s="13" t="n">
+      <c r="H96" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="G97" s="13" t="n">
+      <c r="A97" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H97" s="13" t="n">
+      <c r="H97" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="G98" s="13" t="n">
+      <c r="A98" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="G98" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H98" s="13" t="n">
+      <c r="H98" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G99" s="13" t="n">
+      <c r="A99" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G99" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H99" s="13" t="n">
+      <c r="H99" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="G100" s="13" t="n">
+      <c r="A100" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="G100" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H100" s="13" t="n">
+      <c r="H100" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G101" s="13" t="n">
+      <c r="A101" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="G101" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H101" s="13" t="n">
+      <c r="H101" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="G102" s="13" t="n">
+      <c r="A102" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="G102" s="11" t="n">
         <v>1900</v>
       </c>
-      <c r="H102" s="13" t="n">
+      <c r="H102" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="G103" s="13" t="n">
+      <c r="A103" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G103" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H103" s="13" t="n">
+      <c r="H103" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="G104" s="13" t="n">
+      <c r="A104" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="G104" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H104" s="13" t="n">
+      <c r="H104" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="G105" s="13" t="n">
+      <c r="A105" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G105" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H105" s="13" t="n">
+      <c r="H105" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G106" s="13" t="n">
+      <c r="A106" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="G106" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H106" s="13" t="n">
+      <c r="H106" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="G107" s="13" t="n">
+      <c r="A107" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G107" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H107" s="13" t="n">
+      <c r="H107" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="G108" s="13" t="n">
+      <c r="A108" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="G108" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H108" s="13" t="n">
+      <c r="H108" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="G109" s="13" t="n">
+      <c r="A109" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="G109" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H109" s="13" t="n">
+      <c r="H109" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="G110" s="13" t="n">
+      <c r="A110" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G110" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H110" s="13" t="n">
+      <c r="H110" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G111" s="13" t="n">
+      <c r="A111" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G111" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H111" s="13" t="n">
+      <c r="H111" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="G112" s="13" t="n">
+      <c r="A112" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G112" s="11" t="n">
         <v>2000</v>
       </c>
-      <c r="H112" s="13" t="n">
+      <c r="H112" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="G113" s="13" t="n">
+      <c r="A113" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G113" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H113" s="13" t="n">
+      <c r="H113" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="G114" s="13" t="n">
+      <c r="A114" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="G114" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H114" s="13" t="n">
+      <c r="H114" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="G115" s="13" t="n">
+      <c r="A115" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="G115" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H115" s="13" t="n">
+      <c r="H115" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="G116" s="13" t="n">
+      <c r="A116" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G116" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H116" s="13" t="n">
+      <c r="H116" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="G117" s="13" t="n">
+      <c r="A117" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G117" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H117" s="13" t="n">
+      <c r="H117" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="G118" s="13" t="n">
+      <c r="A118" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="G118" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H118" s="13" t="n">
+      <c r="H118" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="G119" s="13" t="n">
+      <c r="A119" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="G119" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H119" s="13" t="n">
+      <c r="H119" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G120" s="13" t="n">
+      <c r="A120" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="G120" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H120" s="13" t="n">
+      <c r="H120" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="G121" s="13" t="n">
+      <c r="A121" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="G121" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H121" s="13" t="n">
+      <c r="H121" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="G122" s="13" t="n">
+      <c r="A122" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G122" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="H122" s="13" t="n">
+      <c r="H122" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="G123" s="13" t="n">
+      <c r="A123" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="G123" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H123" s="13" t="n">
+      <c r="H123" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="G124" s="13" t="n">
+      <c r="A124" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="G124" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H124" s="13" t="n">
+      <c r="H124" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="G125" s="13" t="n">
+      <c r="A125" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="G125" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H125" s="13" t="n">
+      <c r="H125" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="G126" s="13" t="n">
+      <c r="A126" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="G126" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H126" s="13" t="n">
+      <c r="H126" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="G127" s="13" t="n">
+      <c r="A127" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="G127" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H127" s="13" t="n">
+      <c r="H127" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="G128" s="13" t="n">
+      <c r="A128" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="G128" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H128" s="13" t="n">
+      <c r="H128" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="G129" s="13" t="n">
+      <c r="A129" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="G129" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H129" s="13" t="n">
+      <c r="H129" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="G130" s="13" t="n">
+      <c r="A130" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G130" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H130" s="13" t="n">
+      <c r="H130" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="G131" s="13" t="n">
+      <c r="A131" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G131" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H131" s="13" t="n">
+      <c r="H131" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="G132" s="13" t="n">
+      <c r="A132" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="G132" s="11" t="n">
         <v>2200</v>
       </c>
-      <c r="H132" s="13" t="n">
+      <c r="H132" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="G133" s="13" t="n">
+      <c r="A133" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="G133" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H133" s="13" t="n">
+      <c r="H133" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="G134" s="13" t="n">
+      <c r="A134" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="G134" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H134" s="13" t="n">
+      <c r="H134" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="G135" s="13" t="n">
+      <c r="A135" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="G135" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H135" s="13" t="n">
+      <c r="H135" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="G136" s="13" t="n">
+      <c r="A136" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="G136" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H136" s="13" t="n">
+      <c r="H136" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="G137" s="13" t="n">
+      <c r="A137" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="G137" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H137" s="13" t="n">
+      <c r="H137" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="G138" s="13" t="n">
+      <c r="A138" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="G138" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H138" s="13" t="n">
+      <c r="H138" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="G139" s="13" t="n">
+      <c r="A139" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="G139" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H139" s="13" t="n">
+      <c r="H139" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="G140" s="13" t="n">
+      <c r="A140" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="G140" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H140" s="13" t="n">
+      <c r="H140" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="G141" s="13" t="n">
+      <c r="A141" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="G141" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H141" s="13" t="n">
+      <c r="H141" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="G142" s="13" t="n">
+      <c r="A142" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="G142" s="11" t="n">
         <v>2300</v>
       </c>
-      <c r="H142" s="13" t="n">
+      <c r="H142" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="G143" s="13" t="n">
+      <c r="A143" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G143" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H143" s="13" t="n">
+      <c r="H143" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="G144" s="13" t="n">
+      <c r="A144" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="G144" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H144" s="13" t="n">
+      <c r="H144" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="G145" s="13" t="n">
+      <c r="A145" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G145" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H145" s="13" t="n">
+      <c r="H145" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="G146" s="13" t="n">
+      <c r="A146" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G146" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H146" s="13" t="n">
+      <c r="H146" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G147" s="13" t="n">
+      <c r="A147" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G147" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H147" s="13" t="n">
+      <c r="H147" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="G148" s="13" t="n">
+      <c r="A148" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="G148" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H148" s="13" t="n">
+      <c r="H148" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="G149" s="13" t="n">
+      <c r="A149" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="G149" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H149" s="13" t="n">
+      <c r="H149" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="G150" s="13" t="n">
+      <c r="A150" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G150" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H150" s="13" t="n">
+      <c r="H150" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="G151" s="13" t="n">
+      <c r="A151" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="G151" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H151" s="13" t="n">
+      <c r="H151" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="G152" s="13" t="n">
+      <c r="A152" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="G152" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="H152" s="13" t="n">
+      <c r="H152" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6169,14 +7417,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>610</v>
+      <c r="C1" s="12" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,10 +7432,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>611</v>
+        <v>762</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>612</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,10 +7443,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>613</v>
+        <v>764</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>614</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,10 +7454,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>615</v>
+        <v>766</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>616</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,10 +7465,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>617</v>
+        <v>768</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>618</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,10 +7476,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>619</v>
+        <v>770</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>620</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -6263,17 +7511,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>623</v>
+      <c r="D1" s="12" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
@@ -6298,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>150</v>
@@ -6312,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>240</v>
@@ -6326,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>480</v>
@@ -6340,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>700</v>
@@ -6354,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>624</v>
+        <v>775</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1000</v>
@@ -6406,355 +7654,355 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>626</v>
+        <v>777</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>627</v>
+        <v>778</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>628</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="11" t="n">
+      <c r="A2" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>85</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="C3" s="11" t="n">
+      <c r="A3" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>97</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.71</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="C4" s="11" t="n">
+      <c r="A4" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>148</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" s="15" t="n">
+      <c r="D4" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E4" s="13" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="C5" s="11" t="n">
+      <c r="A5" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>128</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="E5" s="15" t="n">
+      <c r="D5" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="E5" s="13" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="C6" s="11" t="n">
+      <c r="A6" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="10" t="n">
         <v>129</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="E6" s="15" t="n">
+      <c r="D6" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="E6" s="13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="A7" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="E7" s="15" t="n">
+      <c r="D7" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" s="13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="C8" s="11" t="n">
+      <c r="A8" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>171</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="E8" s="15" t="n">
+      <c r="D8" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="E8" s="13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="A9" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>163</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="E9" s="15" t="n">
+      <c r="D9" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="E9" s="13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="C10" s="11" t="n">
+      <c r="A10" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C10" s="10" t="n">
         <v>225</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="E10" s="15" t="n">
+      <c r="D10" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E10" s="13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="C11" s="11" t="n">
+      <c r="A11" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C11" s="10" t="n">
         <v>184</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="E11" s="15" t="n">
+      <c r="D11" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="E11" s="13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="C12" s="11" t="n">
+      <c r="A12" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C12" s="10" t="n">
         <v>210</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E12" s="15" t="n">
+      <c r="D12" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="13" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="11" t="n">
+      <c r="A13" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>356</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="E13" s="15" t="n">
+      <c r="D13" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" s="13" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C14" s="11" t="n">
+      <c r="A14" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <v>312</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="E14" s="15" t="n">
+      <c r="D14" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="E14" s="13" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="C15" s="11" t="n">
+      <c r="A15" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <v>354</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="E15" s="15" t="n">
+      <c r="D15" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="E15" s="13" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="C16" s="11" t="n">
+      <c r="A16" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" s="10" t="n">
         <v>379</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="E16" s="15" t="n">
+      <c r="D16" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="C17" s="11" t="n">
+      <c r="A17" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <v>342</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="E17" s="15" t="n">
+      <c r="D17" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="C18" s="11" t="n">
+      <c r="A18" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <v>438</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="E18" s="15" t="n">
+      <c r="D18" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E18" s="13" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="C19" s="11" t="n">
+      <c r="A19" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>472</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="E19" s="15" t="n">
+      <c r="D19" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="E19" s="13" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="C20" s="11" t="n">
+      <c r="A20" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <v>450</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="E20" s="15" t="n">
+      <c r="D20" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="E20" s="13" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" s="11" t="n">
+      <c r="A21" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C21" s="10" t="n">
         <v>590</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="E21" s="15" t="n">
+      <c r="D21" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="E21" s="13" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6774,213 +8022,218 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="C1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
+      <c r="B17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
